--- a/back-end/excelSheets/excelFormats/faculty_conference_symposia.xlsx
+++ b/back-end/excelSheets/excelFormats/faculty_conference_symposia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>slNo</t>
   </si>
@@ -175,6 +175,72 @@
   </si>
   <si>
     <t>deputed</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>14/05/2013</t>
+  </si>
+  <si>
+    <t>17/07/2013</t>
+  </si>
+  <si>
+    <t>19/09/2013</t>
+  </si>
+  <si>
+    <t>22/11/2013</t>
+  </si>
+  <si>
+    <t>25/01/2014</t>
+  </si>
+  <si>
+    <t>30/03/2014</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>13/02/2015</t>
+  </si>
+  <si>
+    <t>18/04/2015</t>
+  </si>
+  <si>
+    <t>21/06/2015</t>
+  </si>
+  <si>
+    <t>24/08/2015</t>
+  </si>
+  <si>
+    <t>27/10/2015</t>
+  </si>
+  <si>
+    <t>30/12/2015</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>14/11/2016</t>
+  </si>
+  <si>
+    <t>15/03/2017</t>
   </si>
 </sst>
 </file>
@@ -221,11 +287,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -524,7 +591,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D2" sqref="D2:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -572,8 +639,8 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
-        <v>41344</v>
+      <c r="D2" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>51</v>
@@ -597,8 +664,8 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
-        <v>41408</v>
+      <c r="D3" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>52</v>
@@ -620,8 +687,8 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
-        <v>41472</v>
+      <c r="D4" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>51</v>
@@ -643,8 +710,8 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
-        <v>41536</v>
+      <c r="D5" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>52</v>
@@ -666,8 +733,8 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
-        <v>41600</v>
+      <c r="D6" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>52</v>
@@ -689,8 +756,8 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
-        <v>41664</v>
+      <c r="D7" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>51</v>
@@ -712,8 +779,8 @@
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2">
-        <v>41728</v>
+      <c r="D8" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>51</v>
@@ -735,8 +802,8 @@
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2">
-        <v>41792</v>
+      <c r="D9" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>52</v>
@@ -758,8 +825,8 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2">
-        <v>41856</v>
+      <c r="D10" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>51</v>
@@ -781,8 +848,8 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2">
-        <v>41920</v>
+      <c r="D11" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>52</v>
@@ -804,8 +871,8 @@
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2">
-        <v>41984</v>
+      <c r="D12" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>52</v>
@@ -827,8 +894,8 @@
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2">
-        <v>42048</v>
+      <c r="D13" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>51</v>
@@ -850,8 +917,8 @@
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="2">
-        <v>42112</v>
+      <c r="D14" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>51</v>
@@ -873,8 +940,8 @@
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2">
-        <v>42176</v>
+      <c r="D15" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>52</v>
@@ -896,8 +963,8 @@
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2">
-        <v>42240</v>
+      <c r="D16" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>51</v>
@@ -919,8 +986,8 @@
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="2">
-        <v>42304</v>
+      <c r="D17" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>52</v>
@@ -942,8 +1009,8 @@
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2">
-        <v>42368</v>
+      <c r="D18" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>52</v>
@@ -965,8 +1032,8 @@
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="2">
-        <v>42432</v>
+      <c r="D19" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
@@ -988,8 +1055,8 @@
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="2">
-        <v>42496</v>
+      <c r="D20" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -1011,8 +1078,8 @@
       <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="2">
-        <v>42560</v>
+      <c r="D21" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>52</v>
@@ -1034,8 +1101,8 @@
       <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="2">
-        <v>42624</v>
+      <c r="D22" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>51</v>
@@ -1057,8 +1124,8 @@
       <c r="C23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="2">
-        <v>42688</v>
+      <c r="D23" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>52</v>
